--- a/data/extracted_data/raw_round1/timeseries/Medhioub_etal_2012_Table4.xlsx
+++ b/data/extracted_data/raw_round1/timeseries/Medhioub_etal_2012_Table4.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/fix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round1/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2355A65-B033-8440-A2B3-52774AD77E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12910D6-9FF9-F14F-8141-9B027617A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="2380" windowWidth="27240" windowHeight="16440" xr2:uid="{FDD5DB40-695F-204B-8DD4-1B16D576B69C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="19">
   <si>
     <t>Digestive gland</t>
   </si>
@@ -74,6 +78,18 @@
   <si>
     <t>Fed</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of toxicity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -108,8 +124,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +152,623 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45978.463919097223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{B1DD4CEF-5D2A-8E45-9586-2AFA0370E0B8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G49" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="species" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Digestive gland"/>
+        <s v="Remaining tissues"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxin" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="treatment" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Fed"/>
+        <s v="Starved"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="phase" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Depuration"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="4">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="toxicity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8" maxValue="412.5"/>
+    </cacheField>
+    <cacheField name="toxicity_sd" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="39.6"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="48">
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="128.9"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="64.3"/>
+    <n v="10.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21.4"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10.199999999999999"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="128.9"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="88.4"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27.4"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="25.2"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.1"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="21.3"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8.6999999999999993"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="26.1"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="25.8"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10.7"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="412.5"/>
+    <n v="9.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="220.6"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="56.8"/>
+    <n v="3.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.9"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="412.5"/>
+    <n v="9.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="353.1"/>
+    <n v="39.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="73.599999999999994"/>
+    <n v="6.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="80.599999999999994"/>
+    <n v="2.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="21.1"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14.9"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="13.4"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29"/>
+    <n v="1.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="20.3"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="13.8"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="12.8"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8.9"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="9.1999999999999993"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9.6"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13-desMeD"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8.6999999999999993"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="76.099999999999994"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="39.700000000000003"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="22.1"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="21"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="76.099999999999994"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="37.4"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="21.7"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="13,19-didesMeC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="0.4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F84190B-1CCB-9E43-8A72-3F5FE9479FC7}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="0"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of toxicity" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AE8997-48EC-724E-A3C8-240EF7606C07}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +1080,7 @@
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
@@ -1572,6 +2216,326 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>306.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
+      <c r="F52" s="5">
+        <v>86.899999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7</v>
+      </c>
+      <c r="F53" s="5">
+        <v>49.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>70.800000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="F56" s="5">
+        <v>45.900000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7</v>
+      </c>
+      <c r="F57" s="5">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>467.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="5">
+        <v>111.69999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4</v>
+      </c>
+      <c r="F64" s="5">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7</v>
+      </c>
+      <c r="F65" s="5">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
     <sortCondition ref="A2:A49"/>
@@ -1581,4 +2545,411 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75CAF8D-71C0-FB48-8A7A-AB924AF83172}">
+  <dimension ref="A3:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1286.0999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1009.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>567.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>306.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>306.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>86.899999999999991</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>86.899999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>49.099999999999994</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>49.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>276.40000000000003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5">
+        <v>116.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>70.800000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>70.800000000000011</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45.900000000000006</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1527.1999999999998</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>467.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1260.3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5">
+        <v>111.69999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>567.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>467.3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>111.69999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5">
+        <v>113.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2813.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>